--- a/data/outputs/fertile_correlations.xlsx
+++ b/data/outputs/fertile_correlations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,11 +422,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="49" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,24 +440,22 @@
           <t>Correlation Data</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Family Top</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Family Top</t>
+          <t>Correlation Data</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Correlation Data</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr">
-        <is>
           <t>Genus Top</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Correlation Data</t>
         </is>
@@ -472,22 +470,20 @@
       <c r="B2" t="n">
         <v>0.2289993253352901</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Fusobacteriaceae</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>0.2499932201969089</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Kurthia</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="F2" t="n">
         <v>0.3332782323604248</v>
       </c>
     </row>
@@ -500,22 +496,20 @@
       <c r="B3" t="n">
         <v>0.1465856375965364</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Microcoleaceae</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="D3" t="n">
         <v>0.23966136080107</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Desulfobacterium</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="F3" t="n">
         <v>0.3285526546704007</v>
       </c>
     </row>
@@ -528,22 +522,20 @@
       <c r="B4" t="n">
         <v>0.0810833286087515</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Kiritimatiellaceae</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>0.2335496832484569</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Megamonas</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="F4" t="n">
         <v>0.2803167129708202</v>
       </c>
     </row>
@@ -556,22 +548,20 @@
       <c r="B5" t="n">
         <v>0.07143996263690931</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Sporichthyaceae</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>0.2222934541444999</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Virgibacillus</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="F5" t="n">
         <v>0.2782441858145679</v>
       </c>
     </row>
@@ -584,23 +574,4161 @@
       <c r="B6" t="n">
         <v>0.0689083026011556</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Gottschalkiaceae</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>0.2134233769577773</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Caldicellulosiruptor</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="F6" t="n">
         <v>0.2694454968882489</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fibrobacteres</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.06687590156189731</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Parachlamydiaceae</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2035028393406549</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Turicibacter</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2680873991902636</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Spirochaetes</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.04861438191475433</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Magnetococcaceae</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2019606384228224</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sulfuriferula</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2648204488514249</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Armatimonadetes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.04857683056921759</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gallionellaceae</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1984116828238371</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Fusobacterium</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2512795731919709</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bacteroidetes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.04082283579251961</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Streptococcaceae</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1785999065922733</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tardibacter</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2475740233689451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gemmatimonadetes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02934523582720517</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Leptotrichiaceae</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1430360498062168</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Candidatus.Hodgkinia</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2446217535486831</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aquificae</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01802808573958728</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Neisseriaceae</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1394513095920801</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Planktothrix</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.23966136080107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chrysiogenetes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01678393489987236</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Oscillatoriaceae</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1360882862153155</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Candidatus.Profftella</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2335496832484569</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01530856342219485</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Listeriaceae</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1242163422060021</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Kiritimatiella</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2335496832484569</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chlamydiae</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01339784238670851</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Zoogloeaceae</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1236823892219329</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Roseitalea</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2335496832484569</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Balneolaeota</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.003555433356094264</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Peptoniphilaceae</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1224685073775588</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Formosa</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2335496832484569</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chlamydiaceae</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1194952797952082</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Starkeya</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2335496832484569</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Thiobacillaceae</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Blastococcus</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2335496832484569</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Geodermatophilaceae</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pseudarthrobacter</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2288314969134557</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Orbaceae</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Kordia</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.2288314969134557</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gemmataceae</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Candidatus.Phaeomarinobacter</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2222934541444999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chelatococcaceae</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1134714273774332</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ketogulonicigenium</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2222934541444999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Halieaceae</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1083136352239135</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Epidermidibacterium</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.2222934541444999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cohaesibacteraceae</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Janthinobacterium</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2178233074073272</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Burkholderiaceae</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1046156677260794</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Gottschalkia</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.2134233769577773</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Coprothermobacteraceae</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1031702533300256</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yoonia</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.211474504338602</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Alteromonadaceae</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.09961100732095643</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Flaviflexus</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2058246054889284</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pseudonocardiaceae</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.09845511950918655</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Magnetococcus</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2019606384228224</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Candidatus.Nanopelagicaceae</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.09799805091687411</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hungateiclostridium</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1990906222442288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Clostridiales.Family.XIII..Incertae.Sedis</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.09793710206012292</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Collimonas</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.197208623401109</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sutterellaceae</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.09537201643841681</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Candidatus.Carsonella</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.197208623401109</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Oxalobacteraceae</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.09475971946956095</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Herbaspirillum</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1935797656201797</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Isosphaeraceae</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.09266462147667189</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Aquabacterium</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1924566083793955</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Thermoanaerobacterales.Family.III..Incertae.Sedis</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.09174863535978751</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Streptococcus</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1837027610663383</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Campylobacteraceae</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.09059269721788031</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Peptoniphilus</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1811513338293058</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Salinivirgaceae</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.08554134116005524</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Calditerrivibrio</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1714334695976777</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Prevotellaceae</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.08424750116051097</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Thermanaeromonas</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1714187763497743</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Carnobacteriaceae</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0822642199900769</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ezakiella</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.17129724463882</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Dictyoglomaceae</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0810833286087515</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Meiothermus</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1681386784982496</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Atopobiaceae</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.08100363367306757</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Micropruina</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1658005824237092</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tannerellaceae</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.07979414172916348</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Jeotgalibaca</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1604898595464772</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Methylocystaceae</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0760322403474155</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Methylocystis</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.159990857926456</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Pseudanabaenaceae</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.07582429123063063</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Eggerthella</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.159990857926456</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Nocardioidaceae</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.07560989311670964</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Bordetella</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1554749024352279</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Eggerthellaceae</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.07423074889580902</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Ehrlichia</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1554255130470738</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Aphanothecaceae</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.07366059933226977</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Veillonella</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1547079119362795</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Acidimicrobiaceae</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.07366059933226977</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Spiribacter</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1542768987147969</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Selenomonadaceae</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.06769253584457631</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Candidatus.Nanopelagicus</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1542768987147969</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Acidothermaceae</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.06687846537955094</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Glaciecola</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1492611110613609</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fibrobacteraceae</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.06687590156189731</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Arabia</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1471224715841249</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Streptosporangiaceae</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.063999924148283</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Brevefilum</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.146536469866335</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0622796009902768</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Neisseria</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.144708127489933</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Aurantimonadaceae</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0617761952822751</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Alkaliphilus</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1428791545895268</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Spirochaetaceae</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.05768974755321692</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Novosphingobium</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1413839238861823</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Thermaceae</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.05692597382149021</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Oscillatoria</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1360882862153155</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Peptostreptococcaceae</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.05361204619305243</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Desulfosporosinus</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1343901334385911</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Halobacteriovoraceae</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Schaalia</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1342479850378572</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tsukamurellaceae</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Capnocytophaga</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1341993894704073</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Methylococcaceae</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.04909733761112461</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Noviherbaspirillum</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1244360383826689</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Aquificaceae</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.04839610366932946</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Lachnoanaerobaculum</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1240031037310413</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Hungateiclostridiaceae</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.04628014459632292</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pandoraea</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1237870116844726</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Simkaniaceae</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Listeria</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.120515791846093</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sterolibacteriaceae</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0444414422795246</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Chlamydia</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1194952797952082</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rhodobiaceae</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.04440499086858637</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Dickeya</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1194897658584775</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sanguibacteraceae</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.03996656049781898</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Actinotignum</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1182824782705319</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Parvularculaceae</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Tannerella</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1179541718417222</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Syntrophaceae</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sulfuritalea</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1157124646381029</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Cyclobacteriaceae</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.03630127775456032</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Agrobacterium</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Brevibacteriaceae</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.03608748587724685</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Ancylobacter</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Hymenobacteraceae</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.03291879777604234</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Sulfuritortus</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sphingobacteriaceae</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.03175689241892521</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Litorilituus</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Erwiniaceae</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.03105428456286495</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Thauera</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Kangiellaceae</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.03022419245602167</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Thermanaerovibrio</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Clostridiales.Family.XVI..Incertae.Sedis</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.02942762952959695</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Apibacter</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Gemmatimonadaceae</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.02934523582720517</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Crenobacter</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.028641098093474</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Rhodocytophaga</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Aerococcaceae</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02824240548617594</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Candidatus.Methylospira</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Desulfovibrionaceae</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.02752459060793625</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Rippkaea</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Desulfurobacteriaceae</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.02618524672593312</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Algibacter</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1150603421244324</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Barnesiellaceae</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.02194529897793197</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Chelatococcus</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1134714273774332</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Halobacteroidaceae</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.02076060096295961</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Filomicrobium</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1134714273774332</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Holosporaceae</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01998328024890949</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Ilyobacter</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1134714273774332</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Flammeovirgaceae</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.01859468647480819</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Lactococcus</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.112367446946845</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Moraxellaceae</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01786060107981158</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Candidatus.Nardonella</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1111045191315668</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Promicromonosporaceae</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.01697253167635604</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Campylobacter</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1110535242570372</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Chrysiogenaceae</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.01678393489987236</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Paludisphaera</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.108574918252347</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Erysipelotrichaceae</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01538393268085785</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Sphingosinicella</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1083136352239135</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Cryomorphaceae</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01471276963820236</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Breoghania</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Pelagibacteraceae</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.01119940823890257</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Nitrospirillum</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Dermabacteraceae</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.01032658740769099</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Alcaligenes</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Jiangellaceae</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.008571673479883883</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Marinirhabdus</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ardenticatenaceae</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Arenimonas</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Acaryochloridaceae</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Salinispira</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Nostocaceae</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.007356384819101181</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Rodentibacter</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sphingomonadaceae</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.006487114435438618</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Mesotoga</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Chthonomonadaceae</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.005714938887484885</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Gordonibacter</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1071251461158508</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Microcystaceae</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.002856979605829571</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Pseudonocardia</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1065914521785267</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Labilitrichaceae</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.001777893673883627</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Coprothermobacter</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.1031702533300256</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Terribacillus</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.103163047445377</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Algoriphagus</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1031558430703938</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Paeniclostridium</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1031558430703938</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Leptotrichia</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.1008032257548371</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Pantoea</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1001381428682984</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Alloprevotella</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.09978733688707826</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Gemella</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.09872327342762779</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Pseudoclostridium</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.09802543614890705</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Sneathia</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.09799805091687411</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bergeyella</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.09799805091687411</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Nocardia</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.09599670061454513</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Burkholderia</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.09577349093686224</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Sutterella</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.09537201643841681</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Streptosporangium</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.09284025876335443</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Sphingobium</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.09193454658026189</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Gudongella</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.09072827105462285</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Prevotella</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.08942841169862037</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Solimonas</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.08778186972545741</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Salinivirga</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.08554134116005524</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Catenovulum</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.08461758770551933</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Finegoldia</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0841970988220717</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Comamonas</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.08354991148550625</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Dictyoglomus</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0810833286087515</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Acetoanaerobium</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.07999990518535374</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Ureaplasma</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0790430299144166</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Buchnera</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.07801510089094435</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Propionimicrobium</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.07799229226629668</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Pseudopropionibacterium</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.07717675420642479</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Flammeovirga</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.07630278779980521</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Lentibacillus</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0760322403474155</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Cryptobacterium</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0760322403474155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Entomoplasma</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0760322403474155</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Pseudanabaena</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.07582429123063063</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Acidimicrobium</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.07366059933226977</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Nostoc</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.07182453153199585</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Anaerococcus</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.07144118344678382</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Methylocaldum</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.06878400484019302</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Acidothermus</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.06687846537955094</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Fibrobacter</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.06687590156189731</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Libanicoccus</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.06652821030398856</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Carboxydothermus</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.06652821030398856</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Candidatus.Nasuia</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.06652821030398856</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Polynucleobacter</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.06602827319721231</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Faecalibacterium</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.06579799641683563</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Massilia</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0614668223024229</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Pseudogulbenkiania</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.06114368142802039</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Cupriavidus</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.05708458915988694</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Xenorhabdus</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.05702418026056162</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Azoarcus</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.05702418026056162</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Spirochaeta</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.05679523709766139</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Candidatus.Azobacteroides</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.05564990982922678</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Auraticoccus</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.05564834449696682</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Desulfotalea</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.05540721341485524</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Snodgrassella</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.05517092684404685</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Geosporobacter</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.05440466594423565</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Thermoanaerobacterium</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.05396381419450634</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Sulfurospirillum</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.05292815403154201</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Lysinibacillus</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.05241364222342925</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Raineyella</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.05233307192984592</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Pseudolabrys</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Candidatus.Aquiluna</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Hyphomicrobium</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Halobacteriovorax</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Dermacoccus</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Tsukamurella</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.05230434215164702</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Elizabethkingia</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.05227216523884816</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Zymomonas</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.04884548995544501</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Propionibacterium</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.04602826692984041</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Aureimonas</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Hartmannibacter</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Rufibacter</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Wigglesworthia</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Granulicella</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Thioalkalivibrio</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Vampirococcus</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Roseivivax</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Peptoclostridium</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Simkania</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Adlercreutzia</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.04576629938269115</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Atopobium</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.04500123755104921</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Sphaerochaeta</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.04440728944202108</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Microvirga</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.04440499086858637</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Suicoccus</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0414314486953083</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Myroides</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.04045867968563435</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Petrimonas</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.04012246488661931</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Sanguibacter</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.03996656049781898</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Salmonella</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.03958976570158627</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Desulfovibrio</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.03948643595844664</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Neorhizobium</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Niabella</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Martelella</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Salimicrobium</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Parvularcula</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Marinitoga</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Methylomicrobium</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Weeksella</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Cloacibacterium</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.03922825661373527</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Ruthenibacterium</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.03858723663308157</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Brevibacterium</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.03608748587724685</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Massilistercora</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.03600370172789609</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Clavibacter</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.03552583155361686</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Rhizobium</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.03552399269486909</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Sphingopyxis</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.03552399269486909</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Candidatus.Purcelliella</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.03552399269486909</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Tenacibaculum</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.03330546708151581</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Sporanaerobacter</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.03207656189437846</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Kangiella</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.03022419245602167</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Carboxydocella</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.02942762952959695</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Oscillibacter</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.02880247020577182</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Halobacteroides</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.02632381180219821</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Jonquetella</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.02574734686685413</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Haematobacter</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.02574643252722186</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Hydrogenophaga</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.02515574018073211</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Plantactinospora</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.02220249543429319</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Parabacteroides</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.02200992196148025</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Barnesiella</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.02194529897793197</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Commensalibacter</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.02096408417459793</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Candidatus.Cytomitobacter</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.01998328024890949</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Nonomuraea</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.01998328024890949</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Fastidiosipila</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.01920061442949277</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Amphibacillus</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.01776199634743455</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Frondihabitans</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.01760674350038059</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Xylanimonas</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.01697253167635604</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Desulfurispirillum</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.01678393489987236</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Odoribacter</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.01677126733967834</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Bosea</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.01677049345382141</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Candidatus.Desulforudis</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.01624527068112015</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Brachybacterium</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.01561606696983419</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Alistipes</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.01471276963820236</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Owenweeksia</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.01471276963820236</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Mycoplasma</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.0103280330504248</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Parvimonas</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.01028599715452553</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Nautilia</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.008571673479883883</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Jiangella</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.008571673479883883</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Mucilaginibacter</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Candidatus.Atelocyanobacterium</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Sebaldella</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Candidatus.Promineofilum</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Salinibacter</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Acaryochloris</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.008570938817488714</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Murdochiella</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.007683220497531968</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Oceanobacillus</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.007356123579206245</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Anaerobutyricum</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.007110630764723936</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Rhodococcus</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.006506810273102966</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Jeongeupia</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.006289515499754865</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Chthonomonas</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.005714938887484885</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Herbinix</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.005332796130558661</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Candidatus.Cyclonatronum</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.003555433356094264</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Serratia</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.003449142357738615</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Blastochloris</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.002856979605829571</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Kytococcus</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>0.002856979605829571</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Ephemeroptericola</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>0.002856979605829571</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Microcystis</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>0.002856979605829571</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Candidatus.Amoebophilus</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>0.002856979605829571</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Brucella</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>0.002856979605829571</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Clostridioides</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>0.002621673338181113</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Dehalobacterium</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>0.002096408417459793</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Hoyosella</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>0.001778070722597669</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Labilithrix</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>0.001777893673883627</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Ralstonia</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>0.001305734516921623</v>
       </c>
     </row>
   </sheetData>
